--- a/biology/Zoologie/Heterocheirodon/Heterocheirodon.xlsx
+++ b/biology/Zoologie/Heterocheirodon/Heterocheirodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterocheirodon est un genre de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Heterocheirodon se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Heterocheirodon se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (6 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (6 décembre 2023) :
 Heterocheirodon jacuiensis Malabarba &amp; Bertaco, 1999
 Heterocheirodon yatai (Casciotta, Miquelarena &amp; Protogino, 1992)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heterocheirodon Malabarba (d), 1998[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heterocheirodon Malabarba (d), 1998.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Heterocheirodon, composé du grec ancien ἕτερος, héteros, « autre », et du genre Cheirodon, fait référence à l'absence de dimorphisme sexuel au niveau de la nageoire caudale contrairement aux autres genres de la sous-famille des Cheirodontinae et notamment du genre Cheirodon[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Heterocheirodon, composé du grec ancien ἕτερος, héteros, « autre », et du genre Cheirodon, fait référence à l'absence de dimorphisme sexuel au niveau de la nageoire caudale contrairement aux autres genres de la sous-famille des Cheirodontinae et notamment du genre Cheirodon.
 </t>
         </is>
       </c>
